--- a/Excel/镇魂街/dailyLevel.试炼宝库.xlsx
+++ b/Excel/镇魂街/dailyLevel.试炼宝库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,12 +16,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="256">
   <si>
     <t>sheet名</t>
   </si>
@@ -119,24 +125,6 @@
     <t>场景名</t>
   </si>
   <si>
-    <t>ds1-loc1-jlr</t>
-  </si>
-  <si>
-    <t>ds1-loc2-jlr</t>
-  </si>
-  <si>
-    <t>ds1-loc3-jlr</t>
-  </si>
-  <si>
-    <t>ds2-loc1-jlr</t>
-  </si>
-  <si>
-    <t>ds2-loc2-jlr</t>
-  </si>
-  <si>
-    <t>ds2-loc3-jlr</t>
-  </si>
-  <si>
     <t>ui_dtex_Elingruqin_002</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -937,18 +925,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>15~25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10~15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5~10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>熔炼值</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1076,6 +1052,367 @@
   </si>
   <si>
     <t>熔炼本-1</t>
+  </si>
+  <si>
+    <t>DropShow[4].Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[4].Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[5].Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[5].Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示4ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示4描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示5ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落展示5描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色基础材料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄铁</t>
+  </si>
+  <si>
+    <t>玄铁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄铁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄铁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银母</t>
+  </si>
+  <si>
+    <t>银母</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>材料本-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>材料本-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>材料本-9</t>
+  </si>
+  <si>
+    <t>材料本-10</t>
+  </si>
+  <si>
+    <t>铀金</t>
+  </si>
+  <si>
+    <t>铀金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色基础材料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色基础材料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银母</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcb-tp-1-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-1-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-1-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-2-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-2-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-2-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-3-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-3-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-3-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-4-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-4-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-4-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-5-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-5-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-5-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-6-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-6-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-6-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-7-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-7-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-7-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-8-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-8-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-8-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-9-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-9-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-9-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-10-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-10-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-10-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-1-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-1-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-1-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-2-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-2-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-2-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-3-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-3-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-3-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-4-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-4-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-4-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-5-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-5-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-5-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-6-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-6-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>jbb-tp-6-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-1-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-1-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-1-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-2-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-2-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-2-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-3-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-3-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-3-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-4-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-4-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-4-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-5-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-5-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rlb-tp-5-loc-3-jlr</t>
+  </si>
+  <si>
+    <t>Levels</t>
+  </si>
+  <si>
+    <t>head_gjj2_1201005</t>
+  </si>
+  <si>
+    <t>绿色基础材料</t>
+  </si>
+  <si>
+    <t>材料本-11</t>
+  </si>
+  <si>
+    <t>rcb-tp-11-loc-1-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-11-loc-2-jlr</t>
+  </si>
+  <si>
+    <t>rcb-tp-11-loc-3-jlr</t>
   </si>
 </sst>
 </file>
@@ -1641,10 +1978,10 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -1652,7 +1989,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -1661,14 +1998,14 @@
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1679,18 +2016,18 @@
     </row>
     <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="b">
         <v>1</v>
@@ -1699,14 +2036,14 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
@@ -1797,7 +2134,7 @@
   <dimension ref="A1:H1117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1812,68 +2149,68 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1882,10 +2219,10 @@
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1896,10 +2233,10 @@
         <v>601</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1908,10 +2245,10 @@
         <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1922,10 +2259,10 @@
         <v>602</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
         <v>30</v>
@@ -1934,10 +2271,10 @@
         <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1948,10 +2285,10 @@
         <v>603</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -1960,10 +2297,10 @@
         <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1117" spans="8:8" x14ac:dyDescent="0.2">
@@ -1980,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1993,173 +2330,203 @@
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="18" width="20.625" customWidth="1"/>
-    <col min="19" max="19" width="17.5" customWidth="1"/>
-    <col min="20" max="20" width="19.75" customWidth="1"/>
-    <col min="21" max="21" width="21" customWidth="1"/>
-    <col min="22" max="22" width="19.875" customWidth="1"/>
-    <col min="23" max="23" width="20.375" customWidth="1"/>
-    <col min="24" max="24" width="19.5" customWidth="1"/>
-    <col min="25" max="25" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
+    <col min="10" max="19" width="20.625" customWidth="1"/>
+    <col min="20" max="20" width="17.5" customWidth="1"/>
+    <col min="21" max="21" width="19.75" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="19.875" customWidth="1"/>
+    <col min="24" max="24" width="20.375" customWidth="1"/>
+    <col min="25" max="25" width="19.5" customWidth="1"/>
+    <col min="26" max="30" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="U1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="J2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="P2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="U2" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V2" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W2" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" t="s">
-        <v>106</v>
-      </c>
-      <c r="T2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U2" t="s">
-        <v>114</v>
-      </c>
-      <c r="V2" t="s">
-        <v>115</v>
-      </c>
-      <c r="W2" t="s">
-        <v>114</v>
-      </c>
       <c r="X2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2167,76 +2534,91 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>60101</v>
       </c>
@@ -2244,13 +2626,13 @@
         <v>601</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
@@ -2258,16 +2640,18 @@
       <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
+      <c r="H4" s="3">
+        <v>133303</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2275,24 +2659,26 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="S4" s="2"/>
       <c r="T4" s="3" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="V4" s="3">
+        <v>50</v>
+      </c>
+      <c r="W4" s="3"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="AA4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>60102</v>
       </c>
@@ -2300,30 +2686,32 @@
         <v>601</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="F5" s="6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>250</v>
+      </c>
+      <c r="H5" s="3">
+        <v>216967</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2331,28 +2719,26 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="S5" s="2"/>
       <c r="T5" s="3" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="V5" s="3">
+        <v>100</v>
+      </c>
+      <c r="W5" s="3"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="AA5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>60103</v>
       </c>
@@ -2360,30 +2746,32 @@
         <v>601</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F6" s="6">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="H6" s="3">
+        <v>355170</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2391,24 +2779,34 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="S6" s="2"/>
       <c r="T6" s="3" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="AA6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="V6" s="3">
+        <v>100</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="X6" s="3">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>60104</v>
       </c>
@@ -2416,30 +2814,32 @@
         <v>601</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F7" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="H7" s="3">
+        <v>756144</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2447,28 +2847,30 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="S7" s="2"/>
       <c r="T7" s="3" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="X7" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="V7" s="3">
+        <v>120</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="X7" s="2">
+        <v>25</v>
+      </c>
       <c r="Y7" s="2"/>
-      <c r="AA7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>60105</v>
       </c>
@@ -2476,30 +2878,32 @@
         <v>601</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F8" s="6">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1199855</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2507,24 +2911,34 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="S8" s="2"/>
       <c r="T8" s="3" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="AA8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="V8" s="3">
+        <v>30</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="X8" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>60106</v>
       </c>
@@ -2532,30 +2946,32 @@
         <v>601</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>28</v>
+      <c r="H9" s="3">
+        <v>1930350</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2563,28 +2979,34 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="S9" s="2"/>
       <c r="T9" s="3" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
+      </c>
+      <c r="V9" s="3">
+        <v>50</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="AA9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="X9" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>16</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>60107</v>
       </c>
@@ -2592,13 +3014,13 @@
         <v>601</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F10" s="6">
         <v>115</v>
@@ -2606,16 +3028,18 @@
       <c r="G10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
+      <c r="H10" s="3">
+        <v>3206129</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2623,24 +3047,34 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="S10" s="2"/>
       <c r="T10" s="3" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="AA10">
+        <v>119</v>
+      </c>
+      <c r="V10" s="3">
+        <v>15</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="X10" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>60108</v>
       </c>
@@ -2648,30 +3082,32 @@
         <v>601</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="F11" s="6">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>28</v>
+      <c r="H11" s="3">
+        <v>4822985</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2679,59 +3115,67 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="S11" s="2"/>
       <c r="T11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="V11" s="3">
+        <v>20</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="X11" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>60109</v>
+      </c>
+      <c r="B12" s="2">
+        <v>601</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="U11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="AA11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>60201</v>
-      </c>
-      <c r="B12" s="2">
-        <v>602</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="5">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="F12" s="6">
+        <v>155</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7925677</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2739,52 +3183,71 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="S12" s="2"/>
       <c r="T12" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="V12" s="3">
+        <v>25</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>60202</v>
+        <v>60110</v>
       </c>
       <c r="B13" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="5">
-        <v>50</v>
+        <v>174</v>
+      </c>
+      <c r="F13" s="6">
+        <v>175</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H13" s="3">
+        <v>12259465</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2792,52 +3255,71 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="S13" s="2"/>
       <c r="T13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U13" s="3">
-        <v>8000</v>
-      </c>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="V13" s="3">
+        <v>30</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X13" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>60203</v>
+        <v>60111</v>
       </c>
       <c r="B14" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="5">
-        <v>70</v>
+        <v>175</v>
+      </c>
+      <c r="F14" s="6">
+        <v>195</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="H14" s="3">
+        <v>20270637</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2845,52 +3327,67 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="S14" s="2"/>
       <c r="T14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U14" s="3">
-        <v>12000</v>
-      </c>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="V14" s="3">
+        <v>12</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="X14" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>60204</v>
+        <v>60201</v>
       </c>
       <c r="B15" s="2">
         <v>602</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F15" s="5">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="H15" s="3">
+        <v>308709</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2898,52 +3395,59 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="S15" s="2"/>
       <c r="T15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U15" s="3">
-        <v>18000</v>
-      </c>
-      <c r="V15" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" s="3">
+        <v>5000</v>
+      </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>60205</v>
+        <v>60202</v>
       </c>
       <c r="B16" s="2">
         <v>602</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F16" s="5">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="H16" s="3">
+        <v>687525</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2951,52 +3455,59 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="S16" s="2"/>
       <c r="T16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U16" s="3">
-        <v>26400</v>
-      </c>
-      <c r="V16" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="V16" s="3">
+        <v>8000</v>
+      </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>60206</v>
+        <v>60203</v>
       </c>
       <c r="B17" s="2">
         <v>602</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D17" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F17" s="5">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1240205</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3004,52 +3515,59 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="S17" s="2"/>
       <c r="T17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U17" s="3">
-        <v>36000</v>
-      </c>
-      <c r="V17" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="V17" s="3">
+        <v>12000</v>
+      </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-    </row>
-    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+    </row>
+    <row r="18" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>60301</v>
+        <v>60204</v>
       </c>
       <c r="B18" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="2">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="5">
+        <v>90</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2115589</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3057,52 +3575,59 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="S18" s="2"/>
       <c r="T18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="U18" s="2">
-        <v>200</v>
-      </c>
-      <c r="V18" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="V18" s="3">
+        <v>18000</v>
+      </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-    </row>
-    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>60302</v>
+        <v>60205</v>
       </c>
       <c r="B19" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="2">
-        <v>60</v>
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="5">
+        <v>110</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3723456</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3110,52 +3635,59 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="S19" s="2"/>
       <c r="T19" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="U19" s="2">
-        <v>400</v>
-      </c>
-      <c r="V19" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="V19" s="3">
+        <v>26400</v>
+      </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-    </row>
-    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>60303</v>
+        <v>60206</v>
       </c>
       <c r="B20" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="2">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="5">
+        <v>130</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>28</v>
+      <c r="H20" s="3">
+        <v>6288787</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3163,52 +3695,59 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="S20" s="2"/>
       <c r="T20" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="U20" s="2">
-        <v>600</v>
-      </c>
-      <c r="V20" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="V20" s="3">
+        <v>36000</v>
+      </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-    </row>
-    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+    </row>
+    <row r="21" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>60304</v>
+        <v>60301</v>
       </c>
       <c r="B21" s="2">
         <v>603</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F21" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
+        <v>501797</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3216,52 +3755,59 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="S21" s="2"/>
       <c r="T21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="U21" s="2">
-        <v>1000</v>
-      </c>
-      <c r="V21" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V21" s="2">
+        <v>200</v>
+      </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-    </row>
-    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>60305</v>
+        <v>60302</v>
       </c>
       <c r="B22" s="2">
         <v>603</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D22" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F22" s="2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="H22" s="3">
+        <v>895161</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3269,22 +3815,208 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="S22" s="2"/>
       <c r="T22" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="U22" s="2">
-        <v>1500</v>
-      </c>
-      <c r="V22" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V22" s="2">
+        <v>400</v>
+      </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+    </row>
+    <row r="23" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>60303</v>
+      </c>
+      <c r="B23" s="2">
+        <v>603</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1521330</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V23" s="2">
+        <v>600</v>
+      </c>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+    </row>
+    <row r="24" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>60304</v>
+      </c>
+      <c r="B24" s="2">
+        <v>603</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="2">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2803880</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+    </row>
+    <row r="25" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>60305</v>
+      </c>
+      <c r="B25" s="2">
+        <v>603</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="2">
+        <v>120</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4773065</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1500</v>
+      </c>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>